--- a/CAN_Isolation_mini_XT60_3.3V/CAN_MINI_BOARD_PASSIVEPARTS_V1.xlsx
+++ b/CAN_Isolation_mini_XT60_3.3V/CAN_MINI_BOARD_PASSIVEPARTS_V1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
   <si>
     <t>出荷時に原産国が変わる場合があります。</t>
   </si>
@@ -128,7 +128,7 @@
     <t/>
   </si>
   <si>
-    <t>6,775</t>
+    <t>6,770</t>
   </si>
   <si>
     <t>在庫品目</t>
@@ -224,7 +224,7 @@
     <t>RES SMD 10K OHM 1% 1/3W 0603</t>
   </si>
   <si>
-    <t>52,034</t>
+    <t>48,365</t>
   </si>
   <si>
     <t>P10KBYCT-ND</t>
@@ -257,7 +257,7 @@
     <t>RES SMD 200 OHM 5% 1/10W 0603</t>
   </si>
   <si>
-    <t>459,412</t>
+    <t>449,412</t>
   </si>
   <si>
     <t>P200GCT-ND</t>
@@ -350,7 +350,7 @@
     <t>CAP CER 4700PF 100V X7R 0603</t>
   </si>
   <si>
-    <t>118,500</t>
+    <t>118,300</t>
   </si>
   <si>
     <t>478-KAM15AR72A472KTCT-ND</t>
@@ -393,6 +393,42 @@
   </si>
   <si>
     <t>https://mm.digikey.com/Volume0/opasdata/d220001/medias/images/5374/GP_series.jpg</t>
+  </si>
+  <si>
+    <t>B520CQ-13-F</t>
+  </si>
+  <si>
+    <t>Diodes Incorporated</t>
+  </si>
+  <si>
+    <t>DIODE SCHOTTKY 20V 5A SMC</t>
+  </si>
+  <si>
+    <t>1,922</t>
+  </si>
+  <si>
+    <t>31-B520CQ-13-FCT-ND</t>
+  </si>
+  <si>
+    <t>0.78000</t>
+  </si>
+  <si>
+    <t>$0.78</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>https://www.diodes.com/assets/Datasheets/B520CQ-B560CQ.pdf</t>
+  </si>
+  <si>
+    <t>8541.10.0080</t>
+  </si>
+  <si>
+    <t>https://mm.digikey.com/Volume0/opasdata/d220001/medias/docus/6731/Diode%20RoHS3%20REACH%20247%20Jan%202025%20Statement.pdf</t>
+  </si>
+  <si>
+    <t>https://mm.digikey.com/Volume0/opasdata/d220001/medias/images/5788/31%7ESMC%7E%7E2-View-2.jpg</t>
   </si>
 </sst>
 </file>
@@ -438,7 +474,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AF11"/>
+  <dimension ref="A1:AF12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1309,6 +1345,101 @@
         <v>126</v>
       </c>
       <c r="AF11" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>9</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="0">
+        <v>1</v>
+      </c>
+      <c r="J12" s="0">
+        <v>1</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="O12" s="0">
+        <v>1</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q12" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="R12" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="S12" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="T12" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="U12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="V12" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="W12" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="X12" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y12" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z12" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA12" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB12" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC12" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD12" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE12" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF12" s="0" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1330,6 +1461,8 @@
     <hyperlink ref="AE10" r:id="rId14"/>
     <hyperlink ref="S11" r:id="rId15"/>
     <hyperlink ref="AE11" r:id="rId16"/>
+    <hyperlink ref="S12" r:id="rId17"/>
+    <hyperlink ref="AE12" r:id="rId18"/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>
